--- a/plots/basic_stats/two_var_stats/allmus_size_vs_region_name-PC.xlsx
+++ b/plots/basic_stats/two_var_stats/allmus_size_vs_region_name-PC.xlsx
@@ -444,43 +444,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.739</v>
+        <v>1.676</v>
       </c>
       <c r="D2">
-        <v>10.209</v>
+        <v>10.055</v>
       </c>
       <c r="E2">
-        <v>3.983</v>
+        <v>3.926</v>
       </c>
       <c r="F2">
-        <v>4.058</v>
+        <v>3.95</v>
       </c>
       <c r="G2">
-        <v>6.781</v>
+        <v>6.56</v>
       </c>
       <c r="H2">
-        <v>3.832</v>
+        <v>3.974</v>
       </c>
       <c r="I2">
-        <v>1.21</v>
+        <v>1.245</v>
       </c>
       <c r="J2">
-        <v>3.882</v>
+        <v>3.735</v>
       </c>
       <c r="K2">
-        <v>8.419000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="L2">
-        <v>8.218</v>
+        <v>7.972</v>
       </c>
       <c r="M2">
-        <v>3.605</v>
+        <v>3.495</v>
       </c>
       <c r="N2">
-        <v>3.302</v>
+        <v>3.184</v>
       </c>
       <c r="O2">
-        <v>59.238</v>
+        <v>57.792</v>
       </c>
     </row>
     <row r="3">
@@ -496,40 +496,40 @@
         <v>0.479</v>
       </c>
       <c r="D3">
-        <v>2.849</v>
+        <v>2.825</v>
       </c>
       <c r="E3">
-        <v>1.462</v>
+        <v>1.484</v>
       </c>
       <c r="F3">
-        <v>1.714</v>
+        <v>1.628</v>
       </c>
       <c r="G3">
-        <v>2.244</v>
+        <v>2.179</v>
       </c>
       <c r="H3">
-        <v>1.664</v>
+        <v>1.652</v>
       </c>
       <c r="I3">
-        <v>0.9330000000000001</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J3">
-        <v>2.546</v>
+        <v>2.418</v>
       </c>
       <c r="K3">
-        <v>3.554</v>
+        <v>3.376</v>
       </c>
       <c r="L3">
-        <v>3.403</v>
+        <v>3.256</v>
       </c>
       <c r="M3">
-        <v>2.092</v>
+        <v>2.011</v>
       </c>
       <c r="N3">
-        <v>2.117</v>
+        <v>2.035</v>
       </c>
       <c r="O3">
-        <v>25.057</v>
+        <v>24.277</v>
       </c>
     </row>
     <row r="4">
@@ -542,43 +542,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.151</v>
+        <v>0.168</v>
       </c>
       <c r="D4">
-        <v>1.286</v>
+        <v>1.341</v>
       </c>
       <c r="E4">
-        <v>0.6810000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="F4">
-        <v>0.781</v>
+        <v>0.766</v>
       </c>
       <c r="G4">
-        <v>0.781</v>
+        <v>0.766</v>
       </c>
       <c r="H4">
-        <v>1.109</v>
+        <v>1.197</v>
       </c>
       <c r="I4">
-        <v>0.781</v>
+        <v>0.766</v>
       </c>
       <c r="J4">
-        <v>1.336</v>
+        <v>1.293</v>
       </c>
       <c r="K4">
-        <v>2.218</v>
+        <v>2.107</v>
       </c>
       <c r="L4">
-        <v>1.613</v>
+        <v>1.532</v>
       </c>
       <c r="M4">
-        <v>1.134</v>
+        <v>1.077</v>
       </c>
       <c r="N4">
-        <v>1.286</v>
+        <v>1.269</v>
       </c>
       <c r="O4">
-        <v>13.157</v>
+        <v>12.952</v>
       </c>
     </row>
     <row r="5">
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.277</v>
+        <v>0.239</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.327</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="6">
@@ -640,43 +640,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.076</v>
+        <v>0.239</v>
       </c>
       <c r="D6">
-        <v>0.5550000000000001</v>
+        <v>0.622</v>
       </c>
       <c r="E6">
-        <v>0.025</v>
+        <v>0.12</v>
       </c>
       <c r="F6">
-        <v>0.126</v>
+        <v>0.263</v>
       </c>
       <c r="G6">
-        <v>0.101</v>
+        <v>0.407</v>
       </c>
       <c r="H6">
-        <v>0.277</v>
+        <v>0.527</v>
       </c>
       <c r="I6">
-        <v>0.076</v>
+        <v>0.311</v>
       </c>
       <c r="J6">
-        <v>0.202</v>
+        <v>0.335</v>
       </c>
       <c r="K6">
-        <v>0.227</v>
+        <v>0.599</v>
       </c>
       <c r="L6">
-        <v>0.353</v>
+        <v>0.694</v>
       </c>
       <c r="M6">
-        <v>0.126</v>
+        <v>0.192</v>
       </c>
       <c r="N6">
-        <v>0.076</v>
+        <v>0.383</v>
       </c>
       <c r="O6">
-        <v>2.22</v>
+        <v>4.692</v>
       </c>
     </row>
     <row r="7">
@@ -689,43 +689,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.445</v>
+        <v>2.562</v>
       </c>
       <c r="D7">
-        <v>14.949</v>
+        <v>14.891</v>
       </c>
       <c r="E7">
-        <v>6.151</v>
+        <v>6.2</v>
       </c>
       <c r="F7">
-        <v>6.679</v>
+        <v>6.607</v>
       </c>
       <c r="G7">
-        <v>9.907</v>
+        <v>9.911999999999999</v>
       </c>
       <c r="H7">
-        <v>7.159</v>
+        <v>7.589</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>3.256</v>
       </c>
       <c r="J7">
-        <v>7.966</v>
+        <v>7.781</v>
       </c>
       <c r="K7">
-        <v>14.418</v>
+        <v>14.102</v>
       </c>
       <c r="L7">
-        <v>13.587</v>
+        <v>13.454</v>
       </c>
       <c r="M7">
-        <v>6.957</v>
+        <v>6.775</v>
       </c>
       <c r="N7">
-        <v>6.781</v>
+        <v>6.871</v>
       </c>
       <c r="O7">
-        <v>99.999</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
